--- a/Versão5/ABNT/Ontologia_Classes_15965_4A.xlsx
+++ b/Versão5/ABNT/Ontologia_Classes_15965_4A.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ABNT_Normas\ABNT\OntoBIM\V5\ABNT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E239A833-0753-45E9-AF14-3C4972121CEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ADE0D18D-C335-408D-A964-744729680141}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
   </bookViews>
   <sheets>
     <sheet name="Classes" sheetId="24" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="153">
   <si>
     <t>xsd:string</t>
   </si>
@@ -109,9 +109,6 @@
   </si>
   <si>
     <t>CódigoNBR</t>
-  </si>
-  <si>
-    <t>TemaNBR</t>
   </si>
   <si>
     <t>NormaNBR</t>
@@ -405,18 +402,6 @@
     <t>OST_Rooms</t>
   </si>
   <si>
-    <t>Ambiente - objeto volumétrico</t>
-  </si>
-  <si>
-    <t>Ambiente - Objeto volumétrico</t>
-  </si>
-  <si>
-    <t>AmbienteSUS</t>
-  </si>
-  <si>
-    <t>AmbienteHospital</t>
-  </si>
-  <si>
     <t>Equivalente IFC</t>
   </si>
   <si>
@@ -535,6 +520,27 @@
   </si>
   <si>
     <t>p_modelagem</t>
+  </si>
+  <si>
+    <t>ParteNBR</t>
+  </si>
+  <si>
+    <t>HospitalarSUS</t>
+  </si>
+  <si>
+    <t>HospitalarPRI</t>
+  </si>
+  <si>
+    <t>Ambiente que pertenece a un hospital de la red del Sistema Único de Salud del Brasil</t>
+  </si>
+  <si>
+    <t>Ambiente que pertenece a un hospital de la red privada del Brasil</t>
+  </si>
+  <si>
+    <t>Ambiente que pertence a hospital da rede do Sistema Único de Saúde do Brasil</t>
+  </si>
+  <si>
+    <t>Ambiente que pertence a hospital da rede privada do Brasil</t>
   </si>
 </sst>
 </file>
@@ -3825,98 +3831,98 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{873E1939-68E5-4BC3-8236-D740835F34B0}">
   <dimension ref="A1:W7"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="10.9" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="1.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.140625" style="42" customWidth="1"/>
-    <col min="3" max="3" width="6.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="38.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="45" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="5.28515625" style="1" customWidth="1"/>
+    <col min="4" max="5" width="5.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8" style="1" customWidth="1"/>
+    <col min="7" max="11" width="7" style="1" customWidth="1"/>
+    <col min="12" max="13" width="6.28515625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="6.5703125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="8" style="1" customWidth="1"/>
+    <col min="16" max="16" width="34.140625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="37.5703125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="10.42578125" style="1" customWidth="1"/>
     <col min="19" max="19" width="7.5703125" style="1" customWidth="1"/>
     <col min="20" max="20" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.85546875" style="1"/>
+    <col min="22" max="22" width="5.85546875" style="1" customWidth="1"/>
     <col min="23" max="23" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="24" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="13" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B1" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="D1" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="G1" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="H1" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="I1" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="J1" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="K1" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="L1" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="M1" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="N1" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="O1" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="P1" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="Q1" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="Q1" s="10" t="s">
+      <c r="R1" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="R1" s="12" t="s">
+      <c r="S1" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="S1" s="10" t="s">
+      <c r="T1" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="T1" s="10" t="s">
+      <c r="U1" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="U1" s="10" t="s">
+      <c r="V1" s="10" t="s">
         <v>86</v>
-      </c>
-      <c r="V1" s="10" t="s">
-        <v>87</v>
       </c>
       <c r="W1" s="8" t="s">
         <v>1</v>
@@ -3927,16 +3933,16 @@
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>23</v>
+        <v>146</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>22</v>
@@ -3966,20 +3972,20 @@
       </c>
       <c r="N2" s="15" t="str">
         <f t="shared" ref="N2:N7" si="2">CONCATENATE("", E2)</f>
-        <v>TemaNBR</v>
+        <v>ParteNBR</v>
       </c>
       <c r="O2" s="15" t="str">
         <f t="shared" ref="O2:O7" si="3">F2</f>
         <v>CódigoNBR</v>
       </c>
       <c r="P2" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q2" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R2" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S2" s="16" t="str">
         <f t="shared" ref="S2:S4" si="4">SUBSTITUTE(C2, "_", " ")</f>
@@ -3991,7 +3997,7 @@
       </c>
       <c r="U2" s="15" t="str">
         <f t="shared" ref="U2:U7" si="6">SUBSTITUTE(E2, "_", " ")</f>
-        <v>TemaNBR</v>
+        <v>ParteNBR</v>
       </c>
       <c r="V2" s="18" t="str">
         <f>C2</f>
@@ -4007,10 +4013,10 @@
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>17</v>
@@ -4053,13 +4059,13 @@
         <v>CódigoSUS</v>
       </c>
       <c r="P3" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q3" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="Q3" s="15" t="s">
-        <v>91</v>
-      </c>
       <c r="R3" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S3" s="16" t="str">
         <f t="shared" si="4"/>
@@ -4087,10 +4093,10 @@
         <v>4</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>15</v>
@@ -4133,13 +4139,13 @@
         <v>CódigoRDC</v>
       </c>
       <c r="P4" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q4" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="Q4" s="15" t="s">
-        <v>95</v>
-      </c>
       <c r="R4" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S4" s="16" t="str">
         <f t="shared" si="4"/>
@@ -4167,19 +4173,19 @@
         <v>5</v>
       </c>
       <c r="B5" s="41" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C5" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="D5" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="D5" s="37" t="s">
+      <c r="E5" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="E5" s="37" t="s">
-        <v>103</v>
-      </c>
       <c r="F5" s="39" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G5" s="14" t="s">
         <v>3</v>
@@ -4213,16 +4219,16 @@
         <v>OST_Rooms</v>
       </c>
       <c r="P5" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q5" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="Q5" s="16" t="s">
-        <v>105</v>
-      </c>
       <c r="R5" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S5" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="T5" s="16" t="str">
         <f t="shared" si="5"/>
@@ -4246,19 +4252,19 @@
         <v>6</v>
       </c>
       <c r="B6" s="41" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C6" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="D6" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="D6" s="37" t="s">
+      <c r="E6" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="E6" s="37" t="s">
-        <v>103</v>
-      </c>
       <c r="F6" s="38" t="s">
-        <v>109</v>
+        <v>147</v>
       </c>
       <c r="G6" s="14" t="s">
         <v>3</v>
@@ -4289,19 +4295,19 @@
       </c>
       <c r="O6" s="15" t="str">
         <f t="shared" ref="O6" si="12">F6</f>
-        <v>AmbienteSUS</v>
+        <v>HospitalarSUS</v>
       </c>
       <c r="P6" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q6" s="16" t="s">
-        <v>105</v>
+        <v>151</v>
+      </c>
+      <c r="Q6" s="15" t="s">
+        <v>149</v>
       </c>
       <c r="R6" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S6" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="T6" s="16" t="str">
         <f t="shared" ref="T6" si="13">SUBSTITUTE(D6, "_", " ")</f>
@@ -4325,19 +4331,19 @@
         <v>7</v>
       </c>
       <c r="B7" s="41" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C7" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="D7" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="D7" s="37" t="s">
+      <c r="E7" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="E7" s="37" t="s">
-        <v>103</v>
-      </c>
       <c r="F7" s="38" t="s">
-        <v>110</v>
+        <v>148</v>
       </c>
       <c r="G7" s="14" t="s">
         <v>3</v>
@@ -4368,19 +4374,19 @@
       </c>
       <c r="O7" s="15" t="str">
         <f t="shared" si="3"/>
-        <v>AmbienteHospital</v>
+        <v>HospitalarPRI</v>
       </c>
       <c r="P7" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q7" s="16" t="s">
-        <v>108</v>
+        <v>152</v>
+      </c>
+      <c r="Q7" s="15" t="s">
+        <v>150</v>
       </c>
       <c r="R7" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S7" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="T7" s="16" t="str">
         <f t="shared" si="5"/>
@@ -4458,7 +4464,7 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="P2:Q4 P5:Q5 P6:Q7" calculatedColumn="1"/>
+    <ignoredError sqref="P2:Q4 P5:Q5 P6:P7 Q6:Q7" calculatedColumn="1"/>
   </ignoredErrors>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
@@ -4470,10 +4476,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B6B38C3-987C-42D5-BAB0-D66087DA7BA3}">
   <dimension ref="A1:V31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B22" sqref="B22"/>
-      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
+      <selection pane="bottomLeft" activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.140625" defaultRowHeight="9" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4499,70 +4505,70 @@
   <sheetData>
     <row r="1" spans="1:22" s="53" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="50" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B1" s="50" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="51" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="51" t="s">
         <v>42</v>
-      </c>
-      <c r="D1" s="51" t="s">
-        <v>43</v>
       </c>
       <c r="E1" s="50" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="G1" s="51" t="s">
+      <c r="H1" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="H1" s="51" t="s">
+      <c r="I1" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="I1" s="51" t="s">
+      <c r="J1" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="J1" s="51" t="s">
+      <c r="K1" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="K1" s="51" t="s">
+      <c r="L1" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="L1" s="51" t="s">
+      <c r="M1" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="M1" s="51" t="s">
+      <c r="N1" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="N1" s="51" t="s">
+      <c r="O1" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="O1" s="51" t="s">
+      <c r="P1" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="P1" s="51" t="s">
+      <c r="Q1" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="Q1" s="51" t="s">
+      <c r="R1" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="R1" s="51" t="s">
+      <c r="S1" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="S1" s="51" t="s">
+      <c r="T1" s="51" t="s">
         <v>57</v>
       </c>
-      <c r="T1" s="51" t="s">
+      <c r="U1" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="U1" s="51" t="s">
+      <c r="V1" s="52" t="s">
         <v>59</v>
-      </c>
-      <c r="V1" s="52" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:22" s="53" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4570,16 +4576,16 @@
         <v>2</v>
       </c>
       <c r="B2" s="55" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="56" t="s">
+        <v>145</v>
+      </c>
+      <c r="D2" s="56" t="s">
+        <v>120</v>
+      </c>
+      <c r="E2" s="57" t="s">
         <v>61</v>
-      </c>
-      <c r="C2" s="56" t="s">
-        <v>150</v>
-      </c>
-      <c r="D2" s="56" t="s">
-        <v>125</v>
-      </c>
-      <c r="E2" s="57" t="s">
-        <v>62</v>
       </c>
       <c r="F2" s="58" t="str">
         <f>CONCATENATE("d_",MID(C2,FIND("_",C2,1)+1,100))</f>
@@ -4593,10 +4599,10 @@
         <v>0</v>
       </c>
       <c r="I2" s="60" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="J2" s="61" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="K2" s="61" t="s">
         <v>3</v>
@@ -4623,10 +4629,10 @@
         <v>3</v>
       </c>
       <c r="S2" s="62" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="T2" s="62" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="U2" s="63" t="str">
         <f t="shared" ref="U2:U31" si="1">_xlfn.CONCAT("Propriedade de objeto: ",D2)</f>
@@ -4641,18 +4647,20 @@
       <c r="A3" s="54">
         <v>3</v>
       </c>
-      <c r="B3" s="55" t="s">
-        <v>61</v>
+      <c r="B3" s="55" t="str">
+        <f>B2</f>
+        <v>BIMProp</v>
       </c>
       <c r="C3" s="65" t="str">
         <f>C2</f>
         <v>p_modelagem</v>
       </c>
       <c r="D3" s="65" t="s">
-        <v>127</v>
-      </c>
-      <c r="E3" s="57" t="s">
-        <v>62</v>
+        <v>122</v>
+      </c>
+      <c r="E3" s="57" t="str">
+        <f>E2</f>
+        <v>BIMData</v>
       </c>
       <c r="F3" s="70" t="str">
         <f t="shared" ref="F3:F31" si="3">CONCATENATE("d_",MID(C3,FIND("_",C3,1)+1,100))</f>
@@ -4666,10 +4674,10 @@
         <v>0</v>
       </c>
       <c r="I3" s="60" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="J3" s="61" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="K3" s="61" t="s">
         <v>3</v>
@@ -4695,11 +4703,12 @@
       <c r="R3" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="S3" s="62" t="s">
-        <v>66</v>
+      <c r="S3" s="62" t="str">
+        <f>S2</f>
+        <v>BIM</v>
       </c>
       <c r="T3" s="62" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="U3" s="63" t="str">
         <f t="shared" si="1"/>
@@ -4714,18 +4723,20 @@
       <c r="A4" s="54">
         <v>4</v>
       </c>
-      <c r="B4" s="55" t="s">
-        <v>61</v>
+      <c r="B4" s="55" t="str">
+        <f t="shared" ref="B4:B31" si="4">B3</f>
+        <v>BIMProp</v>
       </c>
       <c r="C4" s="65" t="str">
         <f>C3</f>
         <v>p_modelagem</v>
       </c>
       <c r="D4" s="65" t="s">
-        <v>128</v>
-      </c>
-      <c r="E4" s="57" t="s">
-        <v>62</v>
+        <v>123</v>
+      </c>
+      <c r="E4" s="57" t="str">
+        <f t="shared" ref="E4:E31" si="5">E3</f>
+        <v>BIMData</v>
       </c>
       <c r="F4" s="70" t="str">
         <f t="shared" si="3"/>
@@ -4739,10 +4750,10 @@
         <v>0</v>
       </c>
       <c r="I4" s="60" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="J4" s="61" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="K4" s="61" t="s">
         <v>3</v>
@@ -4768,11 +4779,12 @@
       <c r="R4" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="S4" s="62" t="s">
-        <v>66</v>
+      <c r="S4" s="62" t="str">
+        <f t="shared" ref="S4:S31" si="6">S3</f>
+        <v>BIM</v>
       </c>
       <c r="T4" s="62" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="U4" s="63" t="str">
         <f t="shared" si="1"/>
@@ -4787,18 +4799,20 @@
       <c r="A5" s="54">
         <v>5</v>
       </c>
-      <c r="B5" s="55" t="s">
-        <v>61</v>
+      <c r="B5" s="55" t="str">
+        <f t="shared" si="4"/>
+        <v>BIMProp</v>
       </c>
       <c r="C5" s="65" t="str">
         <f>C4</f>
         <v>p_modelagem</v>
       </c>
       <c r="D5" s="65" t="s">
-        <v>129</v>
-      </c>
-      <c r="E5" s="57" t="s">
-        <v>62</v>
+        <v>124</v>
+      </c>
+      <c r="E5" s="57" t="str">
+        <f t="shared" si="5"/>
+        <v>BIMData</v>
       </c>
       <c r="F5" s="70" t="str">
         <f t="shared" si="3"/>
@@ -4841,11 +4855,12 @@
       <c r="R5" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="S5" s="62" t="s">
-        <v>66</v>
+      <c r="S5" s="62" t="str">
+        <f t="shared" si="6"/>
+        <v>BIM</v>
       </c>
       <c r="T5" s="62" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="U5" s="63" t="str">
         <f t="shared" si="1"/>
@@ -4860,18 +4875,20 @@
       <c r="A6" s="54">
         <v>6</v>
       </c>
-      <c r="B6" s="55" t="s">
-        <v>61</v>
+      <c r="B6" s="55" t="str">
+        <f t="shared" si="4"/>
+        <v>BIMProp</v>
       </c>
       <c r="C6" s="65" t="str">
         <f>C5</f>
         <v>p_modelagem</v>
       </c>
       <c r="D6" s="65" t="s">
-        <v>130</v>
-      </c>
-      <c r="E6" s="57" t="s">
-        <v>62</v>
+        <v>125</v>
+      </c>
+      <c r="E6" s="57" t="str">
+        <f t="shared" si="5"/>
+        <v>BIMData</v>
       </c>
       <c r="F6" s="70" t="str">
         <f t="shared" si="3"/>
@@ -4914,11 +4931,12 @@
       <c r="R6" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="S6" s="62" t="s">
-        <v>66</v>
+      <c r="S6" s="62" t="str">
+        <f t="shared" si="6"/>
+        <v>BIM</v>
       </c>
       <c r="T6" s="62" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="U6" s="63" t="str">
         <f t="shared" si="1"/>
@@ -4933,18 +4951,20 @@
       <c r="A7" s="54">
         <v>7</v>
       </c>
-      <c r="B7" s="55" t="s">
-        <v>61</v>
+      <c r="B7" s="55" t="str">
+        <f t="shared" si="4"/>
+        <v>BIMProp</v>
       </c>
       <c r="C7" s="65" t="str">
         <f>C6</f>
         <v>p_modelagem</v>
       </c>
       <c r="D7" s="65" t="s">
-        <v>131</v>
-      </c>
-      <c r="E7" s="57" t="s">
-        <v>62</v>
+        <v>126</v>
+      </c>
+      <c r="E7" s="57" t="str">
+        <f t="shared" si="5"/>
+        <v>BIMData</v>
       </c>
       <c r="F7" s="70" t="str">
         <f t="shared" si="3"/>
@@ -4987,11 +5007,12 @@
       <c r="R7" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="S7" s="62" t="s">
-        <v>66</v>
+      <c r="S7" s="62" t="str">
+        <f t="shared" si="6"/>
+        <v>BIM</v>
       </c>
       <c r="T7" s="62" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="U7" s="63" t="str">
         <f t="shared" si="1"/>
@@ -5006,17 +5027,19 @@
       <c r="A8" s="54">
         <v>8</v>
       </c>
-      <c r="B8" s="55" t="s">
-        <v>61</v>
+      <c r="B8" s="55" t="str">
+        <f t="shared" si="4"/>
+        <v>BIMProp</v>
       </c>
       <c r="C8" s="56" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D8" s="56" t="s">
-        <v>133</v>
-      </c>
-      <c r="E8" s="57" t="s">
-        <v>62</v>
+        <v>128</v>
+      </c>
+      <c r="E8" s="57" t="str">
+        <f t="shared" si="5"/>
+        <v>BIMData</v>
       </c>
       <c r="F8" s="58" t="str">
         <f t="shared" si="3"/>
@@ -5030,10 +5053,10 @@
         <v>0</v>
       </c>
       <c r="I8" s="60" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="J8" s="61" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="K8" s="61" t="s">
         <v>3</v>
@@ -5048,7 +5071,7 @@
         <v>3</v>
       </c>
       <c r="O8" s="61" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="P8" s="61" t="s">
         <v>3</v>
@@ -5059,11 +5082,12 @@
       <c r="R8" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="S8" s="62" t="s">
-        <v>66</v>
+      <c r="S8" s="62" t="str">
+        <f t="shared" si="6"/>
+        <v>BIM</v>
       </c>
       <c r="T8" s="62" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="U8" s="63" t="str">
         <f t="shared" si="1"/>
@@ -5078,18 +5102,20 @@
       <c r="A9" s="54">
         <v>9</v>
       </c>
-      <c r="B9" s="55" t="s">
-        <v>61</v>
+      <c r="B9" s="55" t="str">
+        <f t="shared" si="4"/>
+        <v>BIMProp</v>
       </c>
       <c r="C9" s="65" t="str">
         <f>C8</f>
         <v>p_identidade</v>
       </c>
       <c r="D9" s="65" t="s">
-        <v>135</v>
-      </c>
-      <c r="E9" s="57" t="s">
-        <v>62</v>
+        <v>130</v>
+      </c>
+      <c r="E9" s="57" t="str">
+        <f t="shared" si="5"/>
+        <v>BIMData</v>
       </c>
       <c r="F9" s="70" t="str">
         <f t="shared" si="3"/>
@@ -5103,10 +5129,10 @@
         <v>0</v>
       </c>
       <c r="I9" s="60" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="J9" s="61" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="K9" s="61" t="s">
         <v>3</v>
@@ -5132,11 +5158,12 @@
       <c r="R9" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="S9" s="62" t="s">
-        <v>66</v>
+      <c r="S9" s="62" t="str">
+        <f t="shared" si="6"/>
+        <v>BIM</v>
       </c>
       <c r="T9" s="62" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="U9" s="63" t="str">
         <f t="shared" si="1"/>
@@ -5151,18 +5178,20 @@
       <c r="A10" s="54">
         <v>10</v>
       </c>
-      <c r="B10" s="55" t="s">
-        <v>61</v>
+      <c r="B10" s="55" t="str">
+        <f t="shared" si="4"/>
+        <v>BIMProp</v>
       </c>
       <c r="C10" s="65" t="str">
         <f>C9</f>
         <v>p_identidade</v>
       </c>
       <c r="D10" s="65" t="s">
-        <v>65</v>
-      </c>
-      <c r="E10" s="57" t="s">
-        <v>62</v>
+        <v>64</v>
+      </c>
+      <c r="E10" s="57" t="str">
+        <f t="shared" si="5"/>
+        <v>BIMData</v>
       </c>
       <c r="F10" s="70" t="str">
         <f t="shared" si="3"/>
@@ -5205,11 +5234,12 @@
       <c r="R10" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="S10" s="62" t="s">
-        <v>66</v>
+      <c r="S10" s="62" t="str">
+        <f t="shared" si="6"/>
+        <v>BIM</v>
       </c>
       <c r="T10" s="62" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="U10" s="63" t="str">
         <f t="shared" si="1"/>
@@ -5224,18 +5254,20 @@
       <c r="A11" s="54">
         <v>11</v>
       </c>
-      <c r="B11" s="55" t="s">
-        <v>61</v>
+      <c r="B11" s="55" t="str">
+        <f t="shared" si="4"/>
+        <v>BIMProp</v>
       </c>
       <c r="C11" s="65" t="str">
         <f>C10</f>
         <v>p_identidade</v>
       </c>
       <c r="D11" s="65" t="s">
-        <v>40</v>
-      </c>
-      <c r="E11" s="57" t="s">
-        <v>62</v>
+        <v>39</v>
+      </c>
+      <c r="E11" s="57" t="str">
+        <f t="shared" si="5"/>
+        <v>BIMData</v>
       </c>
       <c r="F11" s="70" t="str">
         <f t="shared" si="3"/>
@@ -5278,11 +5310,12 @@
       <c r="R11" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="S11" s="62" t="s">
-        <v>66</v>
+      <c r="S11" s="62" t="str">
+        <f t="shared" si="6"/>
+        <v>BIM</v>
       </c>
       <c r="T11" s="62" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="U11" s="63" t="str">
         <f t="shared" si="1"/>
@@ -5297,17 +5330,19 @@
       <c r="A12" s="54">
         <v>12</v>
       </c>
-      <c r="B12" s="55" t="s">
-        <v>61</v>
+      <c r="B12" s="55" t="str">
+        <f t="shared" si="4"/>
+        <v>BIMProp</v>
       </c>
       <c r="C12" s="56" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D12" s="56" t="s">
-        <v>137</v>
-      </c>
-      <c r="E12" s="57" t="s">
-        <v>62</v>
+        <v>132</v>
+      </c>
+      <c r="E12" s="57" t="str">
+        <f t="shared" si="5"/>
+        <v>BIMData</v>
       </c>
       <c r="F12" s="58" t="str">
         <f t="shared" si="3"/>
@@ -5330,7 +5365,7 @@
         <v>3</v>
       </c>
       <c r="L12" s="61" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="M12" s="61" t="s">
         <v>3</v>
@@ -5350,11 +5385,12 @@
       <c r="R12" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="S12" s="62" t="s">
-        <v>66</v>
+      <c r="S12" s="62" t="str">
+        <f t="shared" si="6"/>
+        <v>BIM</v>
       </c>
       <c r="T12" s="62" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="U12" s="63" t="str">
         <f t="shared" si="1"/>
@@ -5369,18 +5405,20 @@
       <c r="A13" s="54">
         <v>13</v>
       </c>
-      <c r="B13" s="55" t="s">
-        <v>61</v>
+      <c r="B13" s="55" t="str">
+        <f t="shared" si="4"/>
+        <v>BIMProp</v>
       </c>
       <c r="C13" s="65" t="str">
         <f>C12</f>
         <v>p_posição</v>
       </c>
       <c r="D13" s="67" t="s">
-        <v>139</v>
-      </c>
-      <c r="E13" s="57" t="s">
-        <v>62</v>
+        <v>134</v>
+      </c>
+      <c r="E13" s="57" t="str">
+        <f t="shared" si="5"/>
+        <v>BIMData</v>
       </c>
       <c r="F13" s="70" t="str">
         <f t="shared" si="3"/>
@@ -5423,11 +5461,12 @@
       <c r="R13" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="S13" s="62" t="s">
-        <v>66</v>
+      <c r="S13" s="62" t="str">
+        <f t="shared" si="6"/>
+        <v>BIM</v>
       </c>
       <c r="T13" s="62" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="U13" s="63" t="str">
         <f t="shared" si="1"/>
@@ -5442,18 +5481,20 @@
       <c r="A14" s="54">
         <v>14</v>
       </c>
-      <c r="B14" s="55" t="s">
-        <v>61</v>
+      <c r="B14" s="55" t="str">
+        <f t="shared" si="4"/>
+        <v>BIMProp</v>
       </c>
       <c r="C14" s="65" t="str">
         <f>C13</f>
         <v>p_posição</v>
       </c>
       <c r="D14" s="65" t="s">
-        <v>140</v>
-      </c>
-      <c r="E14" s="57" t="s">
-        <v>62</v>
+        <v>135</v>
+      </c>
+      <c r="E14" s="57" t="str">
+        <f t="shared" si="5"/>
+        <v>BIMData</v>
       </c>
       <c r="F14" s="70" t="str">
         <f t="shared" si="3"/>
@@ -5496,11 +5537,12 @@
       <c r="R14" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="S14" s="62" t="s">
-        <v>66</v>
+      <c r="S14" s="62" t="str">
+        <f t="shared" si="6"/>
+        <v>BIM</v>
       </c>
       <c r="T14" s="62" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="U14" s="63" t="str">
         <f t="shared" si="1"/>
@@ -5515,17 +5557,19 @@
       <c r="A15" s="54">
         <v>15</v>
       </c>
-      <c r="B15" s="55" t="s">
-        <v>61</v>
+      <c r="B15" s="55" t="str">
+        <f t="shared" si="4"/>
+        <v>BIMProp</v>
       </c>
       <c r="C15" s="56" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="D15" s="56" t="s">
-        <v>142</v>
-      </c>
-      <c r="E15" s="57" t="s">
-        <v>62</v>
+        <v>137</v>
+      </c>
+      <c r="E15" s="57" t="str">
+        <f t="shared" si="5"/>
+        <v>BIMData</v>
       </c>
       <c r="F15" s="58" t="str">
         <f t="shared" si="3"/>
@@ -5568,11 +5612,12 @@
       <c r="R15" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="S15" s="62" t="s">
-        <v>66</v>
+      <c r="S15" s="62" t="str">
+        <f t="shared" si="6"/>
+        <v>BIM</v>
       </c>
       <c r="T15" s="62" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="U15" s="63" t="str">
         <f t="shared" si="1"/>
@@ -5587,17 +5632,19 @@
       <c r="A16" s="54">
         <v>16</v>
       </c>
-      <c r="B16" s="55" t="s">
-        <v>61</v>
+      <c r="B16" s="55" t="str">
+        <f t="shared" si="4"/>
+        <v>BIMProp</v>
       </c>
       <c r="C16" s="65" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="D16" s="65" t="s">
-        <v>143</v>
-      </c>
-      <c r="E16" s="57" t="s">
-        <v>62</v>
+        <v>138</v>
+      </c>
+      <c r="E16" s="57" t="str">
+        <f t="shared" si="5"/>
+        <v>BIMData</v>
       </c>
       <c r="F16" s="70" t="str">
         <f t="shared" si="3"/>
@@ -5640,11 +5687,12 @@
       <c r="R16" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="S16" s="62" t="s">
-        <v>66</v>
+      <c r="S16" s="62" t="str">
+        <f t="shared" si="6"/>
+        <v>BIM</v>
       </c>
       <c r="T16" s="62" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="U16" s="63" t="str">
         <f t="shared" si="1"/>
@@ -5659,17 +5707,19 @@
       <c r="A17" s="54">
         <v>17</v>
       </c>
-      <c r="B17" s="55" t="s">
-        <v>61</v>
+      <c r="B17" s="55" t="str">
+        <f t="shared" si="4"/>
+        <v>BIMProp</v>
       </c>
       <c r="C17" s="56" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D17" s="56" t="s">
-        <v>144</v>
-      </c>
-      <c r="E17" s="57" t="s">
-        <v>62</v>
+        <v>139</v>
+      </c>
+      <c r="E17" s="57" t="str">
+        <f t="shared" si="5"/>
+        <v>BIMData</v>
       </c>
       <c r="F17" s="58" t="str">
         <f t="shared" si="3"/>
@@ -5712,11 +5762,12 @@
       <c r="R17" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="S17" s="62" t="s">
-        <v>66</v>
+      <c r="S17" s="62" t="str">
+        <f t="shared" si="6"/>
+        <v>BIM</v>
       </c>
       <c r="T17" s="62" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="U17" s="63" t="str">
         <f t="shared" si="1"/>
@@ -5731,17 +5782,19 @@
       <c r="A18" s="54">
         <v>18</v>
       </c>
-      <c r="B18" s="55" t="s">
-        <v>61</v>
+      <c r="B18" s="55" t="str">
+        <f t="shared" si="4"/>
+        <v>BIMProp</v>
       </c>
       <c r="C18" s="72" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D18" s="72" t="s">
-        <v>145</v>
-      </c>
-      <c r="E18" s="57" t="s">
-        <v>62</v>
+        <v>140</v>
+      </c>
+      <c r="E18" s="57" t="str">
+        <f t="shared" si="5"/>
+        <v>BIMData</v>
       </c>
       <c r="F18" s="70" t="str">
         <f t="shared" si="3"/>
@@ -5755,10 +5808,10 @@
         <v>0</v>
       </c>
       <c r="I18" s="60" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="J18" s="61" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="K18" s="61" t="s">
         <v>3</v>
@@ -5784,11 +5837,12 @@
       <c r="R18" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="S18" s="62" t="s">
-        <v>66</v>
+      <c r="S18" s="62" t="str">
+        <f t="shared" si="6"/>
+        <v>BIM</v>
       </c>
       <c r="T18" s="62" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="U18" s="63" t="str">
         <f t="shared" si="1"/>
@@ -5803,17 +5857,19 @@
       <c r="A19" s="54">
         <v>19</v>
       </c>
-      <c r="B19" s="55" t="s">
-        <v>61</v>
+      <c r="B19" s="55" t="str">
+        <f t="shared" si="4"/>
+        <v>BIMProp</v>
       </c>
       <c r="C19" s="72" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D19" s="72" t="s">
-        <v>146</v>
-      </c>
-      <c r="E19" s="57" t="s">
-        <v>62</v>
+        <v>141</v>
+      </c>
+      <c r="E19" s="57" t="str">
+        <f t="shared" si="5"/>
+        <v>BIMData</v>
       </c>
       <c r="F19" s="70" t="str">
         <f t="shared" si="3"/>
@@ -5827,10 +5883,10 @@
         <v>0</v>
       </c>
       <c r="I19" s="60" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="J19" s="61" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="K19" s="61" t="s">
         <v>3</v>
@@ -5856,11 +5912,12 @@
       <c r="R19" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="S19" s="62" t="s">
-        <v>66</v>
+      <c r="S19" s="62" t="str">
+        <f t="shared" si="6"/>
+        <v>BIM</v>
       </c>
       <c r="T19" s="62" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="U19" s="63" t="str">
         <f t="shared" si="1"/>
@@ -5875,17 +5932,19 @@
       <c r="A20" s="54">
         <v>20</v>
       </c>
-      <c r="B20" s="55" t="s">
-        <v>61</v>
+      <c r="B20" s="55" t="str">
+        <f t="shared" si="4"/>
+        <v>BIMProp</v>
       </c>
       <c r="C20" s="72" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D20" s="72" t="s">
-        <v>147</v>
-      </c>
-      <c r="E20" s="57" t="s">
-        <v>62</v>
+        <v>142</v>
+      </c>
+      <c r="E20" s="57" t="str">
+        <f t="shared" si="5"/>
+        <v>BIMData</v>
       </c>
       <c r="F20" s="70" t="str">
         <f t="shared" si="3"/>
@@ -5899,10 +5958,10 @@
         <v>0</v>
       </c>
       <c r="I20" s="60" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="J20" s="61" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="K20" s="61" t="s">
         <v>3</v>
@@ -5928,11 +5987,12 @@
       <c r="R20" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="S20" s="62" t="s">
-        <v>66</v>
+      <c r="S20" s="62" t="str">
+        <f t="shared" si="6"/>
+        <v>BIM</v>
       </c>
       <c r="T20" s="62" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="U20" s="63" t="str">
         <f t="shared" si="1"/>
@@ -5947,17 +6007,19 @@
       <c r="A21" s="54">
         <v>21</v>
       </c>
-      <c r="B21" s="55" t="s">
-        <v>61</v>
+      <c r="B21" s="55" t="str">
+        <f t="shared" si="4"/>
+        <v>BIMProp</v>
       </c>
       <c r="C21" s="72" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D21" s="72" t="s">
-        <v>148</v>
-      </c>
-      <c r="E21" s="57" t="s">
-        <v>62</v>
+        <v>143</v>
+      </c>
+      <c r="E21" s="57" t="str">
+        <f t="shared" si="5"/>
+        <v>BIMData</v>
       </c>
       <c r="F21" s="70" t="str">
         <f t="shared" si="3"/>
@@ -5971,10 +6033,10 @@
         <v>0</v>
       </c>
       <c r="I21" s="60" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="J21" s="61" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="K21" s="61" t="s">
         <v>3</v>
@@ -6000,11 +6062,12 @@
       <c r="R21" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="S21" s="62" t="s">
-        <v>66</v>
+      <c r="S21" s="62" t="str">
+        <f t="shared" si="6"/>
+        <v>BIM</v>
       </c>
       <c r="T21" s="62" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="U21" s="63" t="str">
         <f t="shared" si="1"/>
@@ -6019,17 +6082,19 @@
       <c r="A22" s="54">
         <v>22</v>
       </c>
-      <c r="B22" s="55" t="s">
-        <v>61</v>
+      <c r="B22" s="55" t="str">
+        <f t="shared" si="4"/>
+        <v>BIMProp</v>
       </c>
       <c r="C22" s="72" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D22" s="72" t="s">
-        <v>149</v>
-      </c>
-      <c r="E22" s="57" t="s">
-        <v>62</v>
+        <v>144</v>
+      </c>
+      <c r="E22" s="57" t="str">
+        <f t="shared" si="5"/>
+        <v>BIMData</v>
       </c>
       <c r="F22" s="70" t="str">
         <f t="shared" si="3"/>
@@ -6043,10 +6108,10 @@
         <v>0</v>
       </c>
       <c r="I22" s="60" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="J22" s="61" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="K22" s="61" t="s">
         <v>3</v>
@@ -6072,11 +6137,12 @@
       <c r="R22" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="S22" s="62" t="s">
-        <v>66</v>
+      <c r="S22" s="62" t="str">
+        <f t="shared" si="6"/>
+        <v>BIM</v>
       </c>
       <c r="T22" s="62" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="U22" s="63" t="str">
         <f t="shared" si="1"/>
@@ -6091,17 +6157,19 @@
       <c r="A23" s="54">
         <v>23</v>
       </c>
-      <c r="B23" s="55" t="s">
-        <v>61</v>
+      <c r="B23" s="55" t="str">
+        <f t="shared" si="4"/>
+        <v>BIMProp</v>
       </c>
       <c r="C23" s="78" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D23" s="79" t="s">
-        <v>38</v>
-      </c>
-      <c r="E23" s="57" t="s">
-        <v>62</v>
+        <v>37</v>
+      </c>
+      <c r="E23" s="57" t="str">
+        <f t="shared" si="5"/>
+        <v>BIMData</v>
       </c>
       <c r="F23" s="58" t="str">
         <f t="shared" si="3"/>
@@ -6144,11 +6212,12 @@
       <c r="R23" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="S23" s="62" t="s">
-        <v>66</v>
+      <c r="S23" s="62" t="str">
+        <f t="shared" si="6"/>
+        <v>BIM</v>
       </c>
       <c r="T23" s="62" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="U23" s="33" t="str">
         <f t="shared" si="1"/>
@@ -6163,18 +6232,20 @@
       <c r="A24" s="54">
         <v>24</v>
       </c>
-      <c r="B24" s="55" t="s">
-        <v>61</v>
+      <c r="B24" s="55" t="str">
+        <f t="shared" si="4"/>
+        <v>BIMProp</v>
       </c>
       <c r="C24" s="72" t="str">
         <f>C23</f>
         <v>p_abnt</v>
       </c>
       <c r="D24" s="73" t="s">
-        <v>39</v>
-      </c>
-      <c r="E24" s="57" t="s">
-        <v>62</v>
+        <v>38</v>
+      </c>
+      <c r="E24" s="57" t="str">
+        <f t="shared" si="5"/>
+        <v>BIMData</v>
       </c>
       <c r="F24" s="70" t="str">
         <f t="shared" si="3"/>
@@ -6217,11 +6288,12 @@
       <c r="R24" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="S24" s="62" t="s">
-        <v>66</v>
+      <c r="S24" s="62" t="str">
+        <f t="shared" si="6"/>
+        <v>BIM</v>
       </c>
       <c r="T24" s="62" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="U24" s="33" t="str">
         <f t="shared" si="1"/>
@@ -6236,18 +6308,20 @@
       <c r="A25" s="54">
         <v>25</v>
       </c>
-      <c r="B25" s="55" t="s">
-        <v>61</v>
+      <c r="B25" s="55" t="str">
+        <f t="shared" si="4"/>
+        <v>BIMProp</v>
       </c>
       <c r="C25" s="71" t="str">
-        <f t="shared" ref="C25:C26" si="4">C24</f>
+        <f t="shared" ref="C25:C26" si="7">C24</f>
         <v>p_abnt</v>
       </c>
       <c r="D25" s="73" t="s">
-        <v>65</v>
-      </c>
-      <c r="E25" s="57" t="s">
-        <v>62</v>
+        <v>64</v>
+      </c>
+      <c r="E25" s="57" t="str">
+        <f t="shared" si="5"/>
+        <v>BIMData</v>
       </c>
       <c r="F25" s="70" t="str">
         <f t="shared" si="3"/>
@@ -6290,11 +6364,12 @@
       <c r="R25" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="S25" s="62" t="s">
-        <v>66</v>
+      <c r="S25" s="62" t="str">
+        <f t="shared" si="6"/>
+        <v>BIM</v>
       </c>
       <c r="T25" s="62" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="U25" s="33" t="str">
         <f t="shared" si="1"/>
@@ -6309,18 +6384,20 @@
       <c r="A26" s="54">
         <v>26</v>
       </c>
-      <c r="B26" s="55" t="s">
-        <v>61</v>
+      <c r="B26" s="55" t="str">
+        <f t="shared" si="4"/>
+        <v>BIMProp</v>
       </c>
       <c r="C26" s="71" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>p_abnt</v>
       </c>
       <c r="D26" s="73" t="s">
-        <v>40</v>
-      </c>
-      <c r="E26" s="57" t="s">
-        <v>62</v>
+        <v>39</v>
+      </c>
+      <c r="E26" s="57" t="str">
+        <f t="shared" si="5"/>
+        <v>BIMData</v>
       </c>
       <c r="F26" s="70" t="str">
         <f t="shared" si="3"/>
@@ -6363,11 +6440,12 @@
       <c r="R26" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="S26" s="62" t="s">
-        <v>66</v>
+      <c r="S26" s="62" t="str">
+        <f t="shared" si="6"/>
+        <v>BIM</v>
       </c>
       <c r="T26" s="62" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="U26" s="33" t="str">
         <f t="shared" si="1"/>
@@ -6382,17 +6460,19 @@
       <c r="A27" s="54">
         <v>27</v>
       </c>
-      <c r="B27" s="55" t="s">
-        <v>61</v>
+      <c r="B27" s="55" t="str">
+        <f t="shared" si="4"/>
+        <v>BIMProp</v>
       </c>
       <c r="C27" s="78" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D27" s="80" t="s">
-        <v>34</v>
-      </c>
-      <c r="E27" s="57" t="s">
-        <v>62</v>
+        <v>33</v>
+      </c>
+      <c r="E27" s="57" t="str">
+        <f t="shared" si="5"/>
+        <v>BIMData</v>
       </c>
       <c r="F27" s="58" t="str">
         <f t="shared" si="3"/>
@@ -6435,11 +6515,12 @@
       <c r="R27" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="S27" s="62" t="s">
-        <v>66</v>
+      <c r="S27" s="62" t="str">
+        <f t="shared" si="6"/>
+        <v>BIM</v>
       </c>
       <c r="T27" s="62" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="U27" s="33" t="str">
         <f t="shared" si="1"/>
@@ -6454,18 +6535,20 @@
       <c r="A28" s="54">
         <v>28</v>
       </c>
-      <c r="B28" s="55" t="s">
-        <v>61</v>
+      <c r="B28" s="55" t="str">
+        <f t="shared" si="4"/>
+        <v>BIMProp</v>
       </c>
       <c r="C28" s="71" t="str">
-        <f t="shared" ref="C28:C31" si="5">C27</f>
+        <f t="shared" ref="C28:C31" si="8">C27</f>
         <v>p_sus</v>
       </c>
       <c r="D28" s="74" t="s">
-        <v>35</v>
-      </c>
-      <c r="E28" s="57" t="s">
-        <v>62</v>
+        <v>34</v>
+      </c>
+      <c r="E28" s="57" t="str">
+        <f t="shared" si="5"/>
+        <v>BIMData</v>
       </c>
       <c r="F28" s="70" t="str">
         <f t="shared" si="3"/>
@@ -6508,11 +6591,12 @@
       <c r="R28" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="S28" s="62" t="s">
-        <v>66</v>
+      <c r="S28" s="62" t="str">
+        <f t="shared" si="6"/>
+        <v>BIM</v>
       </c>
       <c r="T28" s="62" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="U28" s="33" t="str">
         <f t="shared" si="1"/>
@@ -6527,18 +6611,20 @@
       <c r="A29" s="54">
         <v>29</v>
       </c>
-      <c r="B29" s="55" t="s">
-        <v>61</v>
+      <c r="B29" s="55" t="str">
+        <f t="shared" si="4"/>
+        <v>BIMProp</v>
       </c>
       <c r="C29" s="71" t="str">
+        <f t="shared" si="8"/>
+        <v>p_sus</v>
+      </c>
+      <c r="D29" s="74" t="s">
+        <v>99</v>
+      </c>
+      <c r="E29" s="57" t="str">
         <f t="shared" si="5"/>
-        <v>p_sus</v>
-      </c>
-      <c r="D29" s="74" t="s">
-        <v>100</v>
-      </c>
-      <c r="E29" s="57" t="s">
-        <v>62</v>
+        <v>BIMData</v>
       </c>
       <c r="F29" s="70" t="str">
         <f t="shared" si="3"/>
@@ -6581,11 +6667,12 @@
       <c r="R29" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="S29" s="62" t="s">
-        <v>66</v>
+      <c r="S29" s="62" t="str">
+        <f t="shared" si="6"/>
+        <v>BIM</v>
       </c>
       <c r="T29" s="62" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="U29" s="33" t="str">
         <f t="shared" si="1"/>
@@ -6600,18 +6687,20 @@
       <c r="A30" s="54">
         <v>30</v>
       </c>
-      <c r="B30" s="55" t="s">
-        <v>61</v>
+      <c r="B30" s="55" t="str">
+        <f t="shared" si="4"/>
+        <v>BIMProp</v>
       </c>
       <c r="C30" s="71" t="str">
+        <f t="shared" si="8"/>
+        <v>p_sus</v>
+      </c>
+      <c r="D30" s="74" t="s">
+        <v>35</v>
+      </c>
+      <c r="E30" s="57" t="str">
         <f t="shared" si="5"/>
-        <v>p_sus</v>
-      </c>
-      <c r="D30" s="74" t="s">
-        <v>36</v>
-      </c>
-      <c r="E30" s="57" t="s">
-        <v>62</v>
+        <v>BIMData</v>
       </c>
       <c r="F30" s="70" t="str">
         <f t="shared" si="3"/>
@@ -6654,11 +6743,12 @@
       <c r="R30" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="S30" s="62" t="s">
-        <v>66</v>
+      <c r="S30" s="62" t="str">
+        <f t="shared" si="6"/>
+        <v>BIM</v>
       </c>
       <c r="T30" s="62" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="U30" s="33" t="str">
         <f t="shared" si="1"/>
@@ -6673,18 +6763,20 @@
       <c r="A31" s="54">
         <v>31</v>
       </c>
-      <c r="B31" s="55" t="s">
-        <v>61</v>
+      <c r="B31" s="55" t="str">
+        <f t="shared" si="4"/>
+        <v>BIMProp</v>
       </c>
       <c r="C31" s="71" t="str">
+        <f t="shared" si="8"/>
+        <v>p_sus</v>
+      </c>
+      <c r="D31" s="74" t="s">
+        <v>36</v>
+      </c>
+      <c r="E31" s="57" t="str">
         <f t="shared" si="5"/>
-        <v>p_sus</v>
-      </c>
-      <c r="D31" s="74" t="s">
-        <v>37</v>
-      </c>
-      <c r="E31" s="57" t="s">
-        <v>62</v>
+        <v>BIMData</v>
       </c>
       <c r="F31" s="70" t="str">
         <f t="shared" si="3"/>
@@ -6727,11 +6819,12 @@
       <c r="R31" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="S31" s="62" t="s">
-        <v>66</v>
+      <c r="S31" s="62" t="str">
+        <f t="shared" si="6"/>
+        <v>BIM</v>
       </c>
       <c r="T31" s="62" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="U31" s="33" t="str">
         <f t="shared" si="1"/>
@@ -6838,31 +6931,31 @@
         <v>16</v>
       </c>
       <c r="B1" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="D1" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="E1" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="F1" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="G1" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="H1" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="I1" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="J1" s="21" t="s">
         <v>32</v>
-      </c>
-      <c r="J1" s="21" t="s">
-        <v>33</v>
       </c>
       <c r="K1" s="21" t="s">
         <v>4</v>
@@ -6994,28 +7087,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="47" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B1" s="49" t="s">
+        <v>108</v>
+      </c>
+      <c r="C1" s="49" t="s">
+        <v>109</v>
+      </c>
+      <c r="D1" s="49" t="s">
+        <v>110</v>
+      </c>
+      <c r="E1" s="49" t="s">
+        <v>111</v>
+      </c>
+      <c r="F1" s="49" t="s">
+        <v>112</v>
+      </c>
+      <c r="G1" s="49" t="s">
         <v>113</v>
       </c>
-      <c r="C1" s="49" t="s">
+      <c r="H1" s="49" t="s">
         <v>114</v>
-      </c>
-      <c r="D1" s="49" t="s">
-        <v>115</v>
-      </c>
-      <c r="E1" s="49" t="s">
-        <v>116</v>
-      </c>
-      <c r="F1" s="49" t="s">
-        <v>117</v>
-      </c>
-      <c r="G1" s="49" t="s">
-        <v>118</v>
-      </c>
-      <c r="H1" s="49" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -7023,25 +7116,25 @@
         <v>16</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -7077,10 +7170,10 @@
         <v>1</v>
       </c>
       <c r="B1" s="46" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C1" s="46" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
